--- a/output/fit_clients/fit_round_316.xlsx
+++ b/output/fit_clients/fit_round_316.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2318500205.8391</v>
+        <v>1929767106.045114</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07766907129715042</v>
+        <v>0.07940016233983092</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03058616883872802</v>
+        <v>0.04141531608889795</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1159250141.362624</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2412027919.923506</v>
+        <v>2162545352.623266</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1427160356703869</v>
+        <v>0.1330278730564987</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03639016514816366</v>
+        <v>0.04882315929420016</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1206014063.832358</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3862337833.71548</v>
+        <v>4224899524.521256</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1477868940934442</v>
+        <v>0.1168421054093275</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03585890962749671</v>
+        <v>0.03577843327733454</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>114</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1931168921.285435</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2663376390.737161</v>
+        <v>2784809143.630613</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09549552091432646</v>
+        <v>0.0966073407387195</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04197138499355552</v>
+        <v>0.03462032165789489</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>116</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1331688287.468003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2075417156.100413</v>
+        <v>2049401362.28929</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1026937614946221</v>
+        <v>0.1003996106362772</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0516126470121815</v>
+        <v>0.03846429703283908</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>59</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1037708599.486936</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2753899147.887856</v>
+        <v>2028346991.43833</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09676167050866019</v>
+        <v>0.09806293029097038</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03966866421209887</v>
+        <v>0.04473945561848488</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>99</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1376949562.504442</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3487656438.598635</v>
+        <v>3408019235.937757</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1577843476854173</v>
+        <v>0.2146211386101398</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02694803184252092</v>
+        <v>0.02627203191238394</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>100</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1743828326.668133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1727945963.437577</v>
+        <v>1606248234.105345</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1775942701155109</v>
+        <v>0.1373418509931398</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03350403749183011</v>
+        <v>0.02927907851384488</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>863973046.0792711</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4142903118.74034</v>
+        <v>5267437565.829333</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2064179897504454</v>
+        <v>0.1622649831038715</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0514630349239822</v>
+        <v>0.041773824272082</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>133</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2071451592.302094</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3144853991.551672</v>
+        <v>2609880845.182431</v>
       </c>
       <c r="F11" t="n">
-        <v>0.146844334834375</v>
+        <v>0.141425963297793</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03367817408253701</v>
+        <v>0.04414116793155032</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>130</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1572426948.808447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2160905547.13131</v>
+        <v>3225631292.029715</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1452128104691433</v>
+        <v>0.1421621117809856</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03585973981231304</v>
+        <v>0.04686548072961836</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>107</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1080452714.727769</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3572669189.097687</v>
+        <v>4513471792.292335</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1011390340362072</v>
+        <v>0.0756975886895867</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0261196143906368</v>
+        <v>0.02266409218146515</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>106</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1786334671.186585</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2501837850.439843</v>
+        <v>3139499754.09331</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1242945583090732</v>
+        <v>0.1542219606493258</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03460326480227187</v>
+        <v>0.03681766710667918</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>101</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1250918995.737132</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1666575129.426086</v>
+        <v>1395381257.64713</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09062772179625513</v>
+        <v>0.09066506937645978</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03563055545299975</v>
+        <v>0.04889659493499145</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>833287687.9821432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2822576541.509881</v>
+        <v>1834537006.08232</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09485371250764256</v>
+        <v>0.114941499986173</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04370046998791063</v>
+        <v>0.0412962326100489</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>61</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1411288272.753661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5011096920.627921</v>
+        <v>5128572104.85265</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1174640655276033</v>
+        <v>0.1375322283405995</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05231938476591622</v>
+        <v>0.05283779907141776</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>92</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2505548444.930294</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3342397882.643983</v>
+        <v>3694662896.712081</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1253470110302636</v>
+        <v>0.1443151400974059</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02705716655070556</v>
+        <v>0.02930664340182523</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>103</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1671198946.770689</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1295264642.974336</v>
+        <v>1206064167.683966</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1461279953086029</v>
+        <v>0.1915807147501254</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02043332998554437</v>
+        <v>0.02249040750572503</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>647632422.5766413</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1809132667.853746</v>
+        <v>1920465370.251432</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1412941484861086</v>
+        <v>0.1548315852327631</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02971799114489218</v>
+        <v>0.01925062654784496</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>904566380.6153179</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2219094265.475262</v>
+        <v>1925472838.396529</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08414800541666337</v>
+        <v>0.09004794233310297</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02980934422074816</v>
+        <v>0.04416167013280989</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1109547147.749107</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2996926426.1174</v>
+        <v>2519736893.619795</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08825999893367836</v>
+        <v>0.1396235469972853</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03785786434664026</v>
+        <v>0.04519835556578129</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>87</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1498463274.778312</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1192755522.641427</v>
+        <v>981708339.7728119</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1133452715728636</v>
+        <v>0.1749364075228353</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04127499267344724</v>
+        <v>0.0339833323277423</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>596377799.0358356</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3793417677.534636</v>
+        <v>3996567990.973635</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1337271959690255</v>
+        <v>0.09697029899132108</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03405688358751618</v>
+        <v>0.03421872107335295</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>92</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1896708820.642806</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1064524593.938523</v>
+        <v>1425936253.529075</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1094256032884262</v>
+        <v>0.1090816207614858</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02479872435291845</v>
+        <v>0.02236805136036582</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>532262346.1091864</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1287733666.581649</v>
+        <v>927096767.7634165</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09406387019557003</v>
+        <v>0.1215586752766429</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03278496196912899</v>
+        <v>0.02662596095368652</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>643866875.7844799</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3450361860.573347</v>
+        <v>3596683167.378241</v>
       </c>
       <c r="F27" t="n">
-        <v>0.14570767959378</v>
+        <v>0.1210746729523813</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01851459591284573</v>
+        <v>0.02038819670041462</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>81</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1725180967.743225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3391846427.719404</v>
+        <v>3409151417.312772</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1157223174875388</v>
+        <v>0.103108755873663</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03053217803444871</v>
+        <v>0.04987057393719174</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>103</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1695923259.128682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5350240827.071264</v>
+        <v>5119314608.529599</v>
       </c>
       <c r="F29" t="n">
-        <v>0.115420210704296</v>
+        <v>0.1423663909325273</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04152798286463369</v>
+        <v>0.04623413071223018</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>139</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2675120336.801236</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2244078783.795433</v>
+        <v>2304326866.912497</v>
       </c>
       <c r="F30" t="n">
-        <v>0.137113619312981</v>
+        <v>0.1078318684175991</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02771445506296184</v>
+        <v>0.03539520779308194</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1122039457.158428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1009799281.876795</v>
+        <v>1210614714.205078</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1002097286343374</v>
+        <v>0.1086297542210175</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03643830797275657</v>
+        <v>0.04855284984899119</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>504899637.1764237</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1718373752.627091</v>
+        <v>1352386897.985705</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08778898029953612</v>
+        <v>0.1121792377320727</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03602072097814871</v>
+        <v>0.02486893110645501</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>859186989.903007</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2106927180.551657</v>
+        <v>2248663620.718141</v>
       </c>
       <c r="F33" t="n">
-        <v>0.173741812019824</v>
+        <v>0.2049043911308443</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04476432933884506</v>
+        <v>0.05790148550103208</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>94</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1053463661.987191</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1462198635.944046</v>
+        <v>1412289206.415719</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1184094690656675</v>
+        <v>0.07467209969769086</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0259699558665665</v>
+        <v>0.02216640735639897</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>731099280.0023168</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1055048899.340754</v>
+        <v>1086639613.876948</v>
       </c>
       <c r="F35" t="n">
-        <v>0.102192265353829</v>
+        <v>0.1105484855090773</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04215572351581982</v>
+        <v>0.03159755195351661</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>527524456.1834536</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3222753576.110395</v>
+        <v>2983285615.287682</v>
       </c>
       <c r="F36" t="n">
-        <v>0.119333548695626</v>
+        <v>0.1427148014236403</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02142029011198158</v>
+        <v>0.01818688600753327</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>79</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1611376752.106326</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2699129643.708718</v>
+        <v>2351541869.009944</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09276860105799443</v>
+        <v>0.1048261639917059</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03463907326453806</v>
+        <v>0.03301331472030385</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>82</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1349564945.29247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1937388733.205376</v>
+        <v>2172938912.714658</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08165857857079049</v>
+        <v>0.1211999696588828</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03350879093276032</v>
+        <v>0.03877812642442659</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>968694354.0821834</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2175040398.728117</v>
+        <v>1573219250.847959</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1569105404795723</v>
+        <v>0.1267831937673321</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02850389017500883</v>
+        <v>0.02788978962536703</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1087520167.361288</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1543807975.304411</v>
+        <v>1173907253.133825</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1413134555175535</v>
+        <v>0.1625697812790946</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04890907988521791</v>
+        <v>0.04813007889138099</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>771903942.8918364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2770296797.089418</v>
+        <v>2612237910.207887</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1044182456985483</v>
+        <v>0.1362908809679927</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02909166679518928</v>
+        <v>0.03606058191117655</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>79</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1385148397.4131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3630846771.023651</v>
+        <v>2813550634.614355</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1175549810459569</v>
+        <v>0.08110499412383126</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04300907796582792</v>
+        <v>0.04659644541386891</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1815423389.402872</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2132620539.769315</v>
+        <v>1945078482.581701</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1915046125479409</v>
+        <v>0.1652059028266729</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01967431856314693</v>
+        <v>0.02538678836711226</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>113</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1066310355.504774</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1909380494.776188</v>
+        <v>2009528045.434845</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07924382623817006</v>
+        <v>0.07007749007441272</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02304296367320723</v>
+        <v>0.03025020853530094</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>954690335.6396149</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2308444275.340283</v>
+        <v>1586151048.213532</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1885961457927713</v>
+        <v>0.1798620676059974</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04998594542340288</v>
+        <v>0.0559021941916002</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1154222159.604396</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3891259424.97304</v>
+        <v>4561388722.571742</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1480491393781565</v>
+        <v>0.1350109157600659</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03899907926825652</v>
+        <v>0.05927377570763098</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>112</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1945629675.796256</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4213930325.920718</v>
+        <v>3469833067.640827</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1967632815432258</v>
+        <v>0.1469544170461648</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04839749818917687</v>
+        <v>0.05975000280579781</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>84</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2106965174.259533</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4465626773.404564</v>
+        <v>3006963185.017974</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08288040149482924</v>
+        <v>0.09927554063473532</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03879156177897317</v>
+        <v>0.03146660599093669</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>106</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2232813394.011981</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1545377466.970165</v>
+        <v>1617584959.862449</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1797364665991876</v>
+        <v>0.1207065075387704</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02785521060844882</v>
+        <v>0.04432632070265328</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>772688758.4656024</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3123049849.106975</v>
+        <v>3698755124.422892</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1290664734166571</v>
+        <v>0.117135330671836</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03838771397643358</v>
+        <v>0.04826105940310033</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>107</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1561524975.636035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1044852166.912172</v>
+        <v>1496016883.231133</v>
       </c>
       <c r="F51" t="n">
-        <v>0.123060295614624</v>
+        <v>0.167665011609533</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04835972008900789</v>
+        <v>0.04460001246028664</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>522426160.1561888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3752502873.194924</v>
+        <v>3833838049.451321</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08434210613156366</v>
+        <v>0.1190025480223382</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04709336855411669</v>
+        <v>0.03917892765094292</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>130</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1876251507.648234</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3116889561.006357</v>
+        <v>3258865660.64512</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1906326173478774</v>
+        <v>0.1828858635988456</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02491092051545207</v>
+        <v>0.03422782785515939</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>91</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1558444804.840901</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4365701049.701922</v>
+        <v>4594024710.043476</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1077786511575093</v>
+        <v>0.1465681060019813</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03394699799535487</v>
+        <v>0.04031608736531547</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>103</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2182850617.654495</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3587157119.650968</v>
+        <v>4773593962.400503</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1433398132463259</v>
+        <v>0.176424896377195</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03055581610289457</v>
+        <v>0.02247192150306016</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1793578516.508564</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1557788895.951219</v>
+        <v>1840854922.027526</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1218918026160178</v>
+        <v>0.1352958429881034</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04201648908484899</v>
+        <v>0.05821764089897272</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>778894481.6714312</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4450968666.136287</v>
+        <v>3281336663.885364</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1714743261619656</v>
+        <v>0.1504280991737849</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02684944472316863</v>
+        <v>0.02098231734136558</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>100</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2225484459.305368</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1710032624.473724</v>
+        <v>1659841162.411027</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1575629128304081</v>
+        <v>0.1624971433654582</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0248821503035519</v>
+        <v>0.02643880108699589</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>855016324.2112151</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3563590676.515159</v>
+        <v>5343550784.069265</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1159635868884174</v>
+        <v>0.1061687901150161</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03564409814620965</v>
+        <v>0.04839554831832969</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>85</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1781795335.257739</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2421476857.149831</v>
+        <v>2449597000.74927</v>
       </c>
       <c r="F60" t="n">
-        <v>0.205405119288583</v>
+        <v>0.200888994094744</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02776789365958205</v>
+        <v>0.02933950897258828</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>102</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1210738438.244267</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2329551001.173697</v>
+        <v>2065860358.29096</v>
       </c>
       <c r="F61" t="n">
-        <v>0.12213377390439</v>
+        <v>0.1102762744898698</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03168068008114482</v>
+        <v>0.02795353764694982</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>108</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1164775544.289553</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1819836432.444061</v>
+        <v>1962659073.974823</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1583877424932932</v>
+        <v>0.1340505562540881</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04433029303043711</v>
+        <v>0.03702021762100309</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>909918247.2643453</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3554448019.767081</v>
+        <v>5302744382.312942</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07870785578166678</v>
+        <v>0.07772291345050353</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02916625780929194</v>
+        <v>0.03577259982207828</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>91</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1777224092.136204</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4319754056.220727</v>
+        <v>3678633169.217946</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1700249522711888</v>
+        <v>0.122953489654345</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02954872185327322</v>
+        <v>0.02614477506494972</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>98</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2159877086.456434</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4702171017.40263</v>
+        <v>4572158301.493614</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1648696605273481</v>
+        <v>0.1546320620924314</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02952143108015435</v>
+        <v>0.02852020782014689</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>113</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2351085485.395842</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5174951065.910098</v>
+        <v>4794650339.481856</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1630006726983448</v>
+        <v>0.1368017449074837</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05100092886994648</v>
+        <v>0.04281302557151511</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>92</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2587475569.475256</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2635491229.233397</v>
+        <v>2435626477.603069</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09324842914094028</v>
+        <v>0.08397520957790175</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04571772668542658</v>
+        <v>0.03208171537823155</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>101</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1317745663.779459</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5962955973.3276</v>
+        <v>5996338092.598409</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1119579245229761</v>
+        <v>0.1374393678180979</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04796064952503361</v>
+        <v>0.04603209635985352</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>105</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2981478101.422816</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2149245850.12236</v>
+        <v>2071075707.467584</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1703838565070038</v>
+        <v>0.1598515138459335</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04477032246277381</v>
+        <v>0.04937131142502914</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1074622949.342657</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2571405878.101778</v>
+        <v>3204403401.988747</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06825827418519169</v>
+        <v>0.08523588267339766</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04832442325322656</v>
+        <v>0.04486077892923894</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>90</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1285702888.112079</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3936975930.74178</v>
+        <v>4861869791.491405</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1522232347602059</v>
+        <v>0.1188131314807825</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02753874224381425</v>
+        <v>0.02192753817885892</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>115</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1968487991.694817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2093678163.261678</v>
+        <v>2210684080.804729</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08418343575004776</v>
+        <v>0.09597715013134936</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04897597617897973</v>
+        <v>0.05079477799055875</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1046839012.843043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3215463317.170266</v>
+        <v>2353051090.271711</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09014295406499009</v>
+        <v>0.07880763850409209</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0478537591883676</v>
+        <v>0.04530256800411642</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>120</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1607731634.847861</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2503088463.897077</v>
+        <v>3883736911.467432</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1181321767663917</v>
+        <v>0.1591511744357426</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03077038459880009</v>
+        <v>0.03535982280275716</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>107</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1251544340.320212</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2043129497.350334</v>
+        <v>2232871463.38462</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1624323543653634</v>
+        <v>0.1109188462639345</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03145955196474953</v>
+        <v>0.03300353121195523</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1021564708.770576</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4465821124.594398</v>
+        <v>4687585168.128029</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1204267772186963</v>
+        <v>0.1148494917877591</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02748156213463466</v>
+        <v>0.02538254510871736</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2232910566.522439</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1811536295.336107</v>
+        <v>2274008197.797235</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1652715530989624</v>
+        <v>0.1837582516394871</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02699626001523661</v>
+        <v>0.02408191710056794</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>905768181.3269159</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4383916581.555943</v>
+        <v>3350228206.776562</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1183147999885417</v>
+        <v>0.1205129514690365</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04170703185163924</v>
+        <v>0.0509195442708657</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>109</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2191958229.050032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1526634080.786547</v>
+        <v>1428353743.382774</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1320290387674694</v>
+        <v>0.1483657322361547</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02782546230272172</v>
+        <v>0.02697527520105367</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>763317079.2737199</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3608485431.364777</v>
+        <v>5294087400.951194</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08334120433825463</v>
+        <v>0.07268215250977229</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02724831996260992</v>
+        <v>0.03273412956837706</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>67</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1804242695.672759</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4881772908.662975</v>
+        <v>3553310112.230998</v>
       </c>
       <c r="F81" t="n">
-        <v>0.103465403855585</v>
+        <v>0.1197058020536376</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02728658404320306</v>
+        <v>0.03191220394273403</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2440886450.27994</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5578529496.432483</v>
+        <v>5336335537.400907</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2035234116876192</v>
+        <v>0.1709651560815603</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02696392000552003</v>
+        <v>0.02741619943581692</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>112</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2789264699.881178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1760098281.57246</v>
+        <v>2435334765.056097</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1432211643212444</v>
+        <v>0.1162338802050546</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04494832303523982</v>
+        <v>0.03503811259679549</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>880049096.261106</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2050643931.171244</v>
+        <v>2463993409.048714</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08382054861902234</v>
+        <v>0.1006516919632706</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0343212071058313</v>
+        <v>0.03804189256892231</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1025321963.167391</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2431552570.319402</v>
+        <v>3620643941.316248</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1557827160250178</v>
+        <v>0.1514223993266129</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03749975223191643</v>
+        <v>0.04010131998600671</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>119</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1215776282.540826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2473142565.957821</v>
+        <v>1718943268.941649</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1401720348040387</v>
+        <v>0.1080250043694569</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02743475014868346</v>
+        <v>0.02313654986162493</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>43</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1236571376.40258</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1405548859.908625</v>
+        <v>1349028665.989564</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1239583174196618</v>
+        <v>0.1362362395790674</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04086898345952919</v>
+        <v>0.02875013106223697</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>702774538.2391615</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3376456693.560256</v>
+        <v>3471914388.26743</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1080084550547206</v>
+        <v>0.1206084372558701</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02500899745660991</v>
+        <v>0.03344419740293373</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>125</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1688228414.429931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2261190677.464262</v>
+        <v>3349022463.40906</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1203330955220992</v>
+        <v>0.1112783988523832</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0352344311832784</v>
+        <v>0.03264417462486425</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>106</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1130595430.994912</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1434932092.52719</v>
+        <v>1937677106.339682</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1275593395584172</v>
+        <v>0.08472548565136245</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05504376836398962</v>
+        <v>0.05233107528823645</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>717466013.0878019</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1982823187.010978</v>
+        <v>1315230723.46365</v>
       </c>
       <c r="F91" t="n">
-        <v>0.166288454598823</v>
+        <v>0.1855947365041838</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05810142142278348</v>
+        <v>0.0412865017102475</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>991411568.0508343</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2869160788.686289</v>
+        <v>2967650603.757707</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07008135562540337</v>
+        <v>0.1007748255148281</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04268709691312305</v>
+        <v>0.03112380749436956</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>82</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1434580406.166424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5003309926.857471</v>
+        <v>3139932214.087748</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1390250634409706</v>
+        <v>0.1228163793772324</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05383856034645048</v>
+        <v>0.03469532343824364</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>96</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2501654899.154695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1953580182.963948</v>
+        <v>1839523517.434867</v>
       </c>
       <c r="F94" t="n">
-        <v>0.131872681057044</v>
+        <v>0.1457938051080847</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03208334265306925</v>
+        <v>0.03355081145076015</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>976790083.7812585</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2058016900.722821</v>
+        <v>3103595780.364585</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1029729893325361</v>
+        <v>0.1167409199697649</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04270914005233093</v>
+        <v>0.03873685293803093</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>77</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1029008518.632589</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1573909300.072196</v>
+        <v>2368644656.346325</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09588398780952805</v>
+        <v>0.1132428996039837</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04049375501092232</v>
+        <v>0.03648539622081405</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>786954682.4960474</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3711213843.584935</v>
+        <v>3349690661.621236</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1357611265328291</v>
+        <v>0.1150521213350941</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02060657194929598</v>
+        <v>0.01904755658553711</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>101</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1855606954.947067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3713313371.081227</v>
+        <v>3877583522.38826</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08426665160544415</v>
+        <v>0.1021523755915172</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02002939790382084</v>
+        <v>0.02495731647626291</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>84</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1856656718.619024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2179520924.019114</v>
+        <v>2344097457.7344</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1225234389172862</v>
+        <v>0.117953442914692</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03089821046587182</v>
+        <v>0.03415678400803399</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>100</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1089760388.494751</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4099468797.582548</v>
+        <v>3536113974.650815</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1172488354117725</v>
+        <v>0.1202535074977328</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01893535026096307</v>
+        <v>0.02726577678633623</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>97</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2049734477.396327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2770944963.650802</v>
+        <v>2766187763.166812</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1377845670942871</v>
+        <v>0.1888440107159915</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04914952348983567</v>
+        <v>0.04073626791520706</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>126</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1385472540.621078</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_316.xlsx
+++ b/output/fit_clients/fit_round_316.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1929767106.045114</v>
+        <v>2414515327.569509</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07940016233983092</v>
+        <v>0.08797480579941219</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04141531608889795</v>
+        <v>0.04176164276665033</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2162545352.623266</v>
+        <v>1762330754.099353</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1330278730564987</v>
+        <v>0.1763988184285914</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04882315929420016</v>
+        <v>0.03837859034375284</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4224899524.521256</v>
+        <v>4409899231.756466</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1168421054093275</v>
+        <v>0.1100050983308624</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03577843327733454</v>
+        <v>0.0337717394435416</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2784809143.630613</v>
+        <v>3033900324.29122</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0966073407387195</v>
+        <v>0.09754099612604479</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03462032165789489</v>
+        <v>0.04276254335197436</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2049401362.28929</v>
+        <v>1857664566.42399</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1003996106362772</v>
+        <v>0.1306226287731919</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03846429703283908</v>
+        <v>0.03945851350503427</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2028346991.43833</v>
+        <v>3105042122.534533</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09806293029097038</v>
+        <v>0.08520540405293388</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04473945561848488</v>
+        <v>0.0335023689341898</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3408019235.937757</v>
+        <v>3478947624.832343</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2146211386101398</v>
+        <v>0.196011718926304</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02627203191238394</v>
+        <v>0.029742987015219</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1606248234.105345</v>
+        <v>1947254169.540703</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1373418509931398</v>
+        <v>0.1482486140197105</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02927907851384488</v>
+        <v>0.02703757184625265</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5267437565.829333</v>
+        <v>5515936451.178465</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1622649831038715</v>
+        <v>0.1344220682208311</v>
       </c>
       <c r="G10" t="n">
-        <v>0.041773824272082</v>
+        <v>0.04901780481466386</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2609880845.182431</v>
+        <v>4001791486.196174</v>
       </c>
       <c r="F11" t="n">
-        <v>0.141425963297793</v>
+        <v>0.1358643474609239</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04414116793155032</v>
+        <v>0.04505970824164173</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3225631292.029715</v>
+        <v>2360777269.857776</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1421621117809856</v>
+        <v>0.1319638797109812</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04686548072961836</v>
+        <v>0.05078527884025093</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4513471792.292335</v>
+        <v>4117799648.245455</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0756975886895867</v>
+        <v>0.09969726677390862</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02266409218146515</v>
+        <v>0.02504948440860724</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3139499754.09331</v>
+        <v>3558903816.451264</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1542219606493258</v>
+        <v>0.1365296780742775</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03681766710667918</v>
+        <v>0.03753821761157787</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1395381257.64713</v>
+        <v>1351785020.911624</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09066506937645978</v>
+        <v>0.1058543235778666</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04889659493499145</v>
+        <v>0.04075705918270963</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1834537006.08232</v>
+        <v>2900323552.791486</v>
       </c>
       <c r="F16" t="n">
-        <v>0.114941499986173</v>
+        <v>0.074869144331346</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0412962326100489</v>
+        <v>0.04092833178864426</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5128572104.85265</v>
+        <v>5072193001.425559</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1375322283405995</v>
+        <v>0.1054993968704627</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05283779907141776</v>
+        <v>0.05146720197437218</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3694662896.712081</v>
+        <v>2475730814.352924</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1443151400974059</v>
+        <v>0.1655759314155002</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02930664340182523</v>
+        <v>0.02580118902586236</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1206064167.683966</v>
+        <v>1058016204.541974</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1915807147501254</v>
+        <v>0.1493127740196834</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02249040750572503</v>
+        <v>0.02163746225019618</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1920465370.251432</v>
+        <v>2688845929.365123</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1548315852327631</v>
+        <v>0.1098273354573565</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01925062654784496</v>
+        <v>0.02576519521598734</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1925472838.396529</v>
+        <v>2228282987.889339</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09004794233310297</v>
+        <v>0.08233792021784109</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04416167013280989</v>
+        <v>0.03607507779806927</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2519736893.619795</v>
+        <v>3786158234.134158</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1396235469972853</v>
+        <v>0.09205828075513285</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04519835556578129</v>
+        <v>0.04994696781854618</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>981708339.7728119</v>
+        <v>1253358295.2851</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1749364075228353</v>
+        <v>0.1808071668448528</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0339833323277423</v>
+        <v>0.0381971435128601</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3996567990.973635</v>
+        <v>2824640939.013132</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09697029899132108</v>
+        <v>0.1449293791341246</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03421872107335295</v>
+        <v>0.0231607521422096</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1425936253.529075</v>
+        <v>1194211810.075975</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1090816207614858</v>
+        <v>0.1071091791986673</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02236805136036582</v>
+        <v>0.02191544631344583</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>927096767.7634165</v>
+        <v>1440171229.616633</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1215586752766429</v>
+        <v>0.09076179217115386</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02662596095368652</v>
+        <v>0.03826813747502176</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3596683167.378241</v>
+        <v>2984872349.528948</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1210746729523813</v>
+        <v>0.1045895972739889</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02038819670041462</v>
+        <v>0.01725203643748662</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3409151417.312772</v>
+        <v>3251423760.89289</v>
       </c>
       <c r="F28" t="n">
-        <v>0.103108755873663</v>
+        <v>0.1080071183392154</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04987057393719174</v>
+        <v>0.04925341550816177</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5119314608.529599</v>
+        <v>5910692623.415795</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1423663909325273</v>
+        <v>0.1398233418755691</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04623413071223018</v>
+        <v>0.04412976564061667</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2304326866.912497</v>
+        <v>2372884482.723031</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1078318684175991</v>
+        <v>0.09135364659954021</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03539520779308194</v>
+        <v>0.03024597613266766</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1210614714.205078</v>
+        <v>1092138539.764477</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1086297542210175</v>
+        <v>0.07871307500670983</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04855284984899119</v>
+        <v>0.04239464686348113</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1352386897.985705</v>
+        <v>1437200473.01761</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1121792377320727</v>
+        <v>0.1024088454603849</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02486893110645501</v>
+        <v>0.0345260812749411</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2248663620.718141</v>
+        <v>2472547087.983179</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2049043911308443</v>
+        <v>0.1929481810312721</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05790148550103208</v>
+        <v>0.05812362815049127</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1412289206.415719</v>
+        <v>1295494274.812956</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07467209969769086</v>
+        <v>0.1173955169678877</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02216640735639897</v>
+        <v>0.02256284713496123</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1086639613.876948</v>
+        <v>1338207078.758358</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1105484855090773</v>
+        <v>0.1158985455735825</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03159755195351661</v>
+        <v>0.03010121821177803</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2983285615.287682</v>
+        <v>2063708827.487159</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1427148014236403</v>
+        <v>0.1802627428723287</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01818688600753327</v>
+        <v>0.01790036742367592</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2351541869.009944</v>
+        <v>2840644644.229249</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1048261639917059</v>
+        <v>0.07636322129146422</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03301331472030385</v>
+        <v>0.03334847252577745</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2172938912.714658</v>
+        <v>1538564557.066724</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1211999696588828</v>
+        <v>0.08049989405555646</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03877812642442659</v>
+        <v>0.03415695457139497</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1573219250.847959</v>
+        <v>1914056236.794114</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1267831937673321</v>
+        <v>0.1284064757234342</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02788978962536703</v>
+        <v>0.02125745153694911</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1173907253.133825</v>
+        <v>1403210500.093878</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1625697812790946</v>
+        <v>0.1118374917846812</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04813007889138099</v>
+        <v>0.04439614378323453</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2612237910.207887</v>
+        <v>2504365552.862949</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1362908809679927</v>
+        <v>0.1646764119376593</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03606058191117655</v>
+        <v>0.03921565293595904</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2813550634.614355</v>
+        <v>2875734073.767667</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08110499412383126</v>
+        <v>0.09055593981873457</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04659644541386891</v>
+        <v>0.03307762438279405</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1945078482.581701</v>
+        <v>2432536090.004128</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1652059028266729</v>
+        <v>0.1555540706485222</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02538678836711226</v>
+        <v>0.02443289780349663</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2009528045.434845</v>
+        <v>1691079321.456409</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07007749007441272</v>
+        <v>0.09688690490047035</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03025020853530094</v>
+        <v>0.02955715207116788</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1586151048.213532</v>
+        <v>2104583812.260222</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1798620676059974</v>
+        <v>0.1875475829219571</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0559021941916002</v>
+        <v>0.05023792466696714</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4561388722.571742</v>
+        <v>4795137032.188611</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1350109157600659</v>
+        <v>0.1550027808380869</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05927377570763098</v>
+        <v>0.05125260119506295</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3469833067.640827</v>
+        <v>3995447314.297287</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1469544170461648</v>
+        <v>0.1687670016305303</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05975000280579781</v>
+        <v>0.04162993047625886</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3006963185.017974</v>
+        <v>3934138787.770176</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09927554063473532</v>
+        <v>0.08145078500584689</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03146660599093669</v>
+        <v>0.03615261168625903</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1617584959.862449</v>
+        <v>1430615463.272507</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1207065075387704</v>
+        <v>0.1616516757550507</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04432632070265328</v>
+        <v>0.04341913866970715</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3698755124.422892</v>
+        <v>3393421196.294992</v>
       </c>
       <c r="F50" t="n">
-        <v>0.117135330671836</v>
+        <v>0.1343121744899455</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04826105940310033</v>
+        <v>0.03682422875430603</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1496016883.231133</v>
+        <v>1310571336.339378</v>
       </c>
       <c r="F51" t="n">
-        <v>0.167665011609533</v>
+        <v>0.118409637128762</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04460001246028664</v>
+        <v>0.04704387134282269</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3833838049.451321</v>
+        <v>3949969052.964724</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1190025480223382</v>
+        <v>0.09300732887774546</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03917892765094292</v>
+        <v>0.03901291836058347</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3258865660.64512</v>
+        <v>3330108510.74707</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1828858635988456</v>
+        <v>0.1611526042724442</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03422782785515939</v>
+        <v>0.02363981808935503</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4594024710.043476</v>
+        <v>3487022866.438646</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1465681060019813</v>
+        <v>0.1250540447144647</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04031608736531547</v>
+        <v>0.04126172688160306</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4773593962.400503</v>
+        <v>4747496037.569323</v>
       </c>
       <c r="F55" t="n">
-        <v>0.176424896377195</v>
+        <v>0.1734502202012246</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02247192150306016</v>
+        <v>0.02693014474153986</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1840854922.027526</v>
+        <v>1186245338.82168</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1352958429881034</v>
+        <v>0.116902237346565</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05821764089897272</v>
+        <v>0.04575529424481353</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3281336663.885364</v>
+        <v>3118228625.03396</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1504280991737849</v>
+        <v>0.1797405248365871</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02098231734136558</v>
+        <v>0.02195946808516722</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1659841162.411027</v>
+        <v>1536978321.12602</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1624971433654582</v>
+        <v>0.1284560692705915</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02643880108699589</v>
+        <v>0.02508202476429535</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5343550784.069265</v>
+        <v>3584033104.335572</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1061687901150161</v>
+        <v>0.08212752653397891</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04839554831832969</v>
+        <v>0.04678535682766159</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2449597000.74927</v>
+        <v>3276393812.771385</v>
       </c>
       <c r="F60" t="n">
-        <v>0.200888994094744</v>
+        <v>0.1624001372722236</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02933950897258828</v>
+        <v>0.02877135524035376</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2065860358.29096</v>
+        <v>3051026245.848052</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1102762744898698</v>
+        <v>0.1602966897361785</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02795353764694982</v>
+        <v>0.02772236387943115</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1962659073.974823</v>
+        <v>1544571923.244891</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1340505562540881</v>
+        <v>0.1278354549112991</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03702021762100309</v>
+        <v>0.0302482726875012</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5302744382.312942</v>
+        <v>3440729520.286151</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07772291345050353</v>
+        <v>0.0774953330725571</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03577259982207828</v>
+        <v>0.04596287747358037</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3678633169.217946</v>
+        <v>4921467557.883049</v>
       </c>
       <c r="F64" t="n">
-        <v>0.122953489654345</v>
+        <v>0.1799479125728035</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02614477506494972</v>
+        <v>0.0353773827242637</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4572158301.493614</v>
+        <v>3664717373.516952</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1546320620924314</v>
+        <v>0.10628122175187</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02852020782014689</v>
+        <v>0.02871332635002154</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4794650339.481856</v>
+        <v>4997791748.298868</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1368017449074837</v>
+        <v>0.1154166856780596</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04281302557151511</v>
+        <v>0.03942082005218935</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2435626477.603069</v>
+        <v>2261269737.569607</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08397520957790175</v>
+        <v>0.07659879994189039</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03208171537823155</v>
+        <v>0.03765725441799566</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5996338092.598409</v>
+        <v>4031122979.297532</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1374393678180979</v>
+        <v>0.11251513175623</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04603209635985352</v>
+        <v>0.03717412536762386</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2071075707.467584</v>
+        <v>2132991115.018424</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1598515138459335</v>
+        <v>0.1685658422245437</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04937131142502914</v>
+        <v>0.04589279751785631</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3204403401.988747</v>
+        <v>2579335490.779707</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08523588267339766</v>
+        <v>0.09536528594175762</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04486077892923894</v>
+        <v>0.03762493489509822</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4861869791.491405</v>
+        <v>4885492699.307687</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1188131314807825</v>
+        <v>0.1400860814825634</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02192753817885892</v>
+        <v>0.03395744454882514</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2210684080.804729</v>
+        <v>2240117001.722405</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09597715013134936</v>
+        <v>0.06845315332367184</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05079477799055875</v>
+        <v>0.04194646057072843</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2353051090.271711</v>
+        <v>2251052831.817538</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07880763850409209</v>
+        <v>0.1017271207688818</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04530256800411642</v>
+        <v>0.03437094931631671</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3883736911.467432</v>
+        <v>2915537774.084364</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1591511744357426</v>
+        <v>0.1733034779781981</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03535982280275716</v>
+        <v>0.02729995580751674</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2232871463.38462</v>
+        <v>1578245586.771296</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1109188462639345</v>
+        <v>0.1629768212344999</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03300353121195523</v>
+        <v>0.03132603968674764</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4687585168.128029</v>
+        <v>3372631965.058832</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1148494917877591</v>
+        <v>0.09309369628414481</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02538254510871736</v>
+        <v>0.02461049488333129</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2274008197.797235</v>
+        <v>1922526171.915409</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1837582516394871</v>
+        <v>0.154831745112968</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02408191710056794</v>
+        <v>0.02067781612100065</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3350228206.776562</v>
+        <v>4098152871.082747</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1205129514690365</v>
+        <v>0.09195065106858914</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0509195442708657</v>
+        <v>0.04215230758945918</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1428353743.382774</v>
+        <v>1473658897.167615</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1483657322361547</v>
+        <v>0.1696646773374603</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02697527520105367</v>
+        <v>0.03000122483473158</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5294087400.951194</v>
+        <v>4777545627.002638</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07268215250977229</v>
+        <v>0.09048512502005567</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03273412956837706</v>
+        <v>0.03297741632747647</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3553310112.230998</v>
+        <v>3251571633.500984</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1197058020536376</v>
+        <v>0.1036693947300792</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03191220394273403</v>
+        <v>0.03111811012201344</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5336335537.400907</v>
+        <v>3644183851.491966</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1709651560815603</v>
+        <v>0.2141247954908989</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02741619943581692</v>
+        <v>0.02015839836654243</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2435334765.056097</v>
+        <v>2443440829.681136</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1162338802050546</v>
+        <v>0.1137527918596686</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03503811259679549</v>
+        <v>0.03263397336587732</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2463993409.048714</v>
+        <v>1895527598.619789</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1006516919632706</v>
+        <v>0.09663232164320364</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03804189256892231</v>
+        <v>0.0450787327161405</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3620643941.316248</v>
+        <v>2510729916.961953</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1514223993266129</v>
+        <v>0.1419924818808888</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04010131998600671</v>
+        <v>0.04846038923799951</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1718943268.941649</v>
+        <v>2335951635.248294</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1080250043694569</v>
+        <v>0.1676138750916786</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02313654986162493</v>
+        <v>0.02646951302189698</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1349028665.989564</v>
+        <v>1143128743.741592</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1362362395790674</v>
+        <v>0.1664455747742558</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02875013106223697</v>
+        <v>0.03953329809557488</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3471914388.26743</v>
+        <v>3268465335.913797</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1206084372558701</v>
+        <v>0.1538999205428741</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03344419740293373</v>
+        <v>0.02631889351093649</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3349022463.40906</v>
+        <v>2127837013.599756</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1112783988523832</v>
+        <v>0.1321405700698585</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03264417462486425</v>
+        <v>0.02837915761327185</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1937677106.339682</v>
+        <v>1564571931.838823</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08472548565136245</v>
+        <v>0.1171352775479499</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05233107528823645</v>
+        <v>0.04544731592481638</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1315230723.46365</v>
+        <v>1562120580.040899</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1855947365041838</v>
+        <v>0.1597877308874164</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0412865017102475</v>
+        <v>0.04371138177719051</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2967650603.757707</v>
+        <v>2433461696.223108</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1007748255148281</v>
+        <v>0.08255293758268567</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03112380749436956</v>
+        <v>0.03280280194998314</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3139932214.087748</v>
+        <v>4558420913.415878</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1228163793772324</v>
+        <v>0.1380259916927552</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03469532343824364</v>
+        <v>0.0344974907792338</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1839523517.434867</v>
+        <v>2515060183.945851</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1457938051080847</v>
+        <v>0.1143601837488165</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03355081145076015</v>
+        <v>0.03547776451132742</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3103595780.364585</v>
+        <v>2463870674.572242</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1167409199697649</v>
+        <v>0.09683653203997246</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03873685293803093</v>
+        <v>0.05211550298182138</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2368644656.346325</v>
+        <v>2252036426.467835</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1132428996039837</v>
+        <v>0.1350232676123309</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03648539622081405</v>
+        <v>0.02886400269997733</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3349690661.621236</v>
+        <v>5380167919.683772</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1150521213350941</v>
+        <v>0.1338619957182679</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01904755658553711</v>
+        <v>0.02787696861891235</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3877583522.38826</v>
+        <v>3846257319.187489</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1021523755915172</v>
+        <v>0.09862670689315643</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02495731647626291</v>
+        <v>0.02279192065099666</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2344097457.7344</v>
+        <v>3343671613.889754</v>
       </c>
       <c r="F99" t="n">
-        <v>0.117953442914692</v>
+        <v>0.1345128728427027</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03415678400803399</v>
+        <v>0.02723863093966703</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3536113974.650815</v>
+        <v>3083108044.183236</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1202535074977328</v>
+        <v>0.1607908568125692</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02726577678633623</v>
+        <v>0.01882145408794291</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2766187763.166812</v>
+        <v>3393687754.209483</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1888440107159915</v>
+        <v>0.1412016722313425</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04073626791520706</v>
+        <v>0.03806693515539281</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_316.xlsx
+++ b/output/fit_clients/fit_round_316.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2414515327.569509</v>
+        <v>2491443857.43669</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08797480579941219</v>
+        <v>0.09226403651170198</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04176164276665033</v>
+        <v>0.04464514239012229</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1762330754.099353</v>
+        <v>2460294846.763186</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1763988184285914</v>
+        <v>0.1216011626874748</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03837859034375284</v>
+        <v>0.04510342818090752</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4409899231.756466</v>
+        <v>4793542716.726621</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1100050983308624</v>
+        <v>0.1079166840852306</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0337717394435416</v>
+        <v>0.03051179849521466</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>165</v>
+      </c>
+      <c r="J4" t="n">
+        <v>316</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3033900324.29122</v>
+        <v>4129560806.691383</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09754099612604479</v>
+        <v>0.08976831651200058</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04276254335197436</v>
+        <v>0.03523746327517537</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>316</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1857664566.42399</v>
+        <v>2779123340.14403</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1306226287731919</v>
+        <v>0.1029649437071394</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03945851350503427</v>
+        <v>0.04540293933164585</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3105042122.534533</v>
+        <v>2844969598.561754</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08520540405293388</v>
+        <v>0.06824415834028752</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0335023689341898</v>
+        <v>0.04941631634072037</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3478947624.832343</v>
+        <v>2876489423.943455</v>
       </c>
       <c r="F8" t="n">
-        <v>0.196011718926304</v>
+        <v>0.2029909874818779</v>
       </c>
       <c r="G8" t="n">
-        <v>0.029742987015219</v>
+        <v>0.02569523341325073</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>85</v>
+      </c>
+      <c r="J8" t="n">
+        <v>314</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1947254169.540703</v>
+        <v>2113803685.303076</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1482486140197105</v>
+        <v>0.125847039860368</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02703757184625265</v>
+        <v>0.02865567626242704</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5515936451.178465</v>
+        <v>4547658954.043131</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1344220682208311</v>
+        <v>0.2120991941631644</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04901780481466386</v>
+        <v>0.0380607881483981</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>277</v>
+      </c>
+      <c r="J10" t="n">
+        <v>315</v>
+      </c>
+      <c r="K10" t="n">
+        <v>75.66352229114629</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4001791486.196174</v>
+        <v>3866365580.390537</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1358643474609239</v>
+        <v>0.1229078473444033</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04505970824164173</v>
+        <v>0.04415467872193359</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>127</v>
+      </c>
+      <c r="J11" t="n">
+        <v>316</v>
+      </c>
+      <c r="K11" t="n">
+        <v>87.90470855232844</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2360777269.857776</v>
+        <v>2143447588.846756</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1319638797109812</v>
+        <v>0.1198253550610591</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05078527884025093</v>
+        <v>0.05287720154872075</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4117799648.245455</v>
+        <v>3415944782.39887</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09969726677390862</v>
+        <v>0.09441361459571271</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02504948440860724</v>
+        <v>0.02626502907874132</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>164</v>
+      </c>
+      <c r="J13" t="n">
+        <v>315</v>
+      </c>
+      <c r="K13" t="n">
+        <v>67.00592713597031</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3558903816.451264</v>
+        <v>2581216883.238787</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1365296780742775</v>
+        <v>0.1602811820962246</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03753821761157787</v>
+        <v>0.03271413837887305</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>65</v>
+      </c>
+      <c r="J14" t="n">
+        <v>310</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1351785020.911624</v>
+        <v>1327131811.329216</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1058543235778666</v>
+        <v>0.07942940610700752</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04075705918270963</v>
+        <v>0.04264930929853721</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2900323552.791486</v>
+        <v>2311517081.813535</v>
       </c>
       <c r="F16" t="n">
-        <v>0.074869144331346</v>
+        <v>0.08689813875239961</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04092833178864426</v>
+        <v>0.05042274570615599</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5072193001.425559</v>
+        <v>4037471675.41392</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1054993968704627</v>
+        <v>0.1206404282996614</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05146720197437218</v>
+        <v>0.0431244695933657</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>149</v>
+      </c>
+      <c r="J17" t="n">
+        <v>315</v>
+      </c>
+      <c r="K17" t="n">
+        <v>74.19422474902169</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2475730814.352924</v>
+        <v>3243001440.183971</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1655759314155002</v>
+        <v>0.1583547661835656</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02580118902586236</v>
+        <v>0.03326928604317612</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>77</v>
+      </c>
+      <c r="J18" t="n">
+        <v>309</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1058016204.541974</v>
+        <v>1343369252.836895</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1493127740196834</v>
+        <v>0.1179225354122836</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02163746225019618</v>
+        <v>0.02202511303068806</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2688845929.365123</v>
+        <v>1988725016.644938</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1098273354573565</v>
+        <v>0.1007673856036103</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02576519521598734</v>
+        <v>0.02359187015669517</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2228282987.889339</v>
+        <v>2220194145.312917</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08233792021784109</v>
+        <v>0.06710076952650022</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03607507779806927</v>
+        <v>0.04259886300713198</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3786158234.134158</v>
+        <v>3143713872.636858</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09205828075513285</v>
+        <v>0.1126714290238692</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04994696781854618</v>
+        <v>0.05196050334235993</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>85</v>
+      </c>
+      <c r="J22" t="n">
+        <v>314</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1253358295.2851</v>
+        <v>1105011708.594172</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1808071668448528</v>
+        <v>0.1137655532710717</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0381971435128601</v>
+        <v>0.03586137111414308</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2824640939.013132</v>
+        <v>3980822026.631813</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1449293791341246</v>
+        <v>0.120830625905148</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0231607521422096</v>
+        <v>0.02862841220401251</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>94</v>
+      </c>
+      <c r="J24" t="n">
+        <v>316</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1194211810.075975</v>
+        <v>990555904.5827551</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1071091791986673</v>
+        <v>0.1171592598455259</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02191544631344583</v>
+        <v>0.02264811868127798</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1440171229.616633</v>
+        <v>1310602979.802135</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09076179217115386</v>
+        <v>0.106573385682876</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03826813747502176</v>
+        <v>0.02597802694365674</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2984872349.528948</v>
+        <v>3126463560.422305</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1045895972739889</v>
+        <v>0.1197390186703276</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01725203643748662</v>
+        <v>0.01870747394147061</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>131</v>
+      </c>
+      <c r="J27" t="n">
+        <v>314</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3251423760.89289</v>
+        <v>2374479185.857581</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1080071183392154</v>
+        <v>0.1044647870835768</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04925341550816177</v>
+        <v>0.03507717301479263</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>66</v>
+      </c>
+      <c r="J28" t="n">
+        <v>309</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1448,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5910692623.415795</v>
+        <v>3936544982.174703</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1398233418755691</v>
+        <v>0.1266069566120434</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04412976564061667</v>
+        <v>0.03076604842545663</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>293</v>
+      </c>
+      <c r="J29" t="n">
+        <v>316</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2372884482.723031</v>
+        <v>1587752827.306273</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09135364659954021</v>
+        <v>0.1247877524491969</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03024597613266766</v>
+        <v>0.0315726135457653</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1092138539.764477</v>
+        <v>932356471.242821</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07871307500670983</v>
+        <v>0.1095336176284823</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04239464686348113</v>
+        <v>0.03210676729963283</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1437200473.01761</v>
+        <v>1336147958.934872</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1024088454603849</v>
+        <v>0.1200831046392495</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0345260812749411</v>
+        <v>0.03191461955330274</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1594,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2472547087.983179</v>
+        <v>1974288587.276344</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1929481810312721</v>
+        <v>0.1867001766236917</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05812362815049127</v>
+        <v>0.05368287573077341</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1295494274.812956</v>
+        <v>1524689800.522429</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1173955169678877</v>
+        <v>0.0874674199345068</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02256284713496123</v>
+        <v>0.02024721221851102</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1664,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1338207078.758358</v>
+        <v>1063428546.113046</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1158985455735825</v>
+        <v>0.1010659588430724</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03010121821177803</v>
+        <v>0.03963902139927751</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1699,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2063708827.487159</v>
+        <v>3155204569.635683</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1802627428723287</v>
+        <v>0.1411677071757899</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01790036742367592</v>
+        <v>0.02292635728908343</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1734,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2840644644.229249</v>
+        <v>2330777292.407183</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07636322129146422</v>
+        <v>0.1100616998306055</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03334847252577745</v>
+        <v>0.03843801958590667</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1538564557.066724</v>
+        <v>1486577525.648511</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08049989405555646</v>
+        <v>0.09390974479314391</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03415695457139497</v>
+        <v>0.02497849805271177</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1804,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1914056236.794114</v>
+        <v>1365312133.852704</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1284064757234342</v>
+        <v>0.1552466325357182</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02125745153694911</v>
+        <v>0.02668681285222139</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1403210500.093878</v>
+        <v>1466627521.909929</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1118374917846812</v>
+        <v>0.1099469845874555</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04439614378323453</v>
+        <v>0.04877040208708975</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2504365552.862949</v>
+        <v>2298227966.10629</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1646764119376593</v>
+        <v>0.1097168041900087</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03921565293595904</v>
+        <v>0.04675571882807167</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1903,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2875734073.767667</v>
+        <v>3540691722.50605</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09055593981873457</v>
+        <v>0.07967559499535526</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03307762438279405</v>
+        <v>0.02988974180505714</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>129</v>
+      </c>
+      <c r="J42" t="n">
+        <v>316</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2432536090.004128</v>
+        <v>2148470607.785366</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1555540706485222</v>
+        <v>0.1312843920492555</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02443289780349663</v>
+        <v>0.02581729924717733</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1691079321.456409</v>
+        <v>1586752872.679903</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09688690490047035</v>
+        <v>0.07431103485315833</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02955715207116788</v>
+        <v>0.02839648139854345</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2104583812.260222</v>
+        <v>2285169492.037015</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1875475829219571</v>
+        <v>0.1865064276787222</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05023792466696714</v>
+        <v>0.04160158165077627</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2043,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4795137032.188611</v>
+        <v>5155043560.513936</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1550027808380869</v>
+        <v>0.1500424165961446</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05125260119506295</v>
+        <v>0.05088195481567363</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>189</v>
+      </c>
+      <c r="J46" t="n">
+        <v>316</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2078,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3995447314.297287</v>
+        <v>4147699567.964504</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1687670016305303</v>
+        <v>0.1914809816627009</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04162993047625886</v>
+        <v>0.03597505462821028</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>140</v>
+      </c>
+      <c r="J47" t="n">
+        <v>316</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2119,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3934138787.770176</v>
+        <v>3353989814.100139</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08145078500584689</v>
+        <v>0.08271067335034553</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03615261168625903</v>
+        <v>0.02919173570187262</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>159</v>
+      </c>
+      <c r="J48" t="n">
+        <v>315</v>
+      </c>
+      <c r="K48" t="n">
+        <v>68.1657867509673</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2156,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1430615463.272507</v>
+        <v>1214223590.539299</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1616516757550507</v>
+        <v>0.1954142505480726</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04341913866970715</v>
+        <v>0.03373245545982317</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2185,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3393421196.294992</v>
+        <v>3134274699.110156</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1343121744899455</v>
+        <v>0.1764616947047319</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03682422875430603</v>
+        <v>0.04503942838631404</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>101</v>
+      </c>
+      <c r="J50" t="n">
+        <v>315</v>
+      </c>
+      <c r="K50" t="n">
+        <v>61.97776638977474</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1310571336.339378</v>
+        <v>1371904293.776329</v>
       </c>
       <c r="F51" t="n">
-        <v>0.118409637128762</v>
+        <v>0.1937392178595837</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04704387134282269</v>
+        <v>0.03496699371631084</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2257,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3949969052.964724</v>
+        <v>3776029175.494688</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09300732887774546</v>
+        <v>0.1233358021796668</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03901291836058347</v>
+        <v>0.05798260570239362</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>192</v>
+      </c>
+      <c r="J52" t="n">
+        <v>316</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2292,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3330108510.74707</v>
+        <v>2356453992.761111</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1611526042724442</v>
+        <v>0.1560880777137976</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02363981808935503</v>
+        <v>0.02818283442050799</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>44</v>
+      </c>
+      <c r="J53" t="n">
+        <v>313</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2327,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3487022866.438646</v>
+        <v>4504654356.435673</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1250540447144647</v>
+        <v>0.163234242983792</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04126172688160306</v>
+        <v>0.0505606691906768</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>166</v>
+      </c>
+      <c r="J54" t="n">
+        <v>316</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2362,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4747496037.569323</v>
+        <v>3662117983.666025</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1734502202012246</v>
+        <v>0.2197545640693032</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02693014474153986</v>
+        <v>0.0249780350239701</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>146</v>
+      </c>
+      <c r="J55" t="n">
+        <v>316</v>
+      </c>
+      <c r="K55" t="n">
+        <v>80.45281045686298</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2405,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1186245338.82168</v>
+        <v>1266398399.783581</v>
       </c>
       <c r="F56" t="n">
-        <v>0.116902237346565</v>
+        <v>0.1018321133840163</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04575529424481353</v>
+        <v>0.05046002603272313</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2434,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3118228625.03396</v>
+        <v>3421049977.655535</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1797405248365871</v>
+        <v>0.1415047430388985</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02195946808516722</v>
+        <v>0.02700068763817319</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>129</v>
+      </c>
+      <c r="J57" t="n">
+        <v>312</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2469,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1536978321.12602</v>
+        <v>1533496522.120465</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1284560692705915</v>
+        <v>0.1296049230873331</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02508202476429535</v>
+        <v>0.03943663923773462</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2504,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3584033104.335572</v>
+        <v>4176026159.276007</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08212752653397891</v>
+        <v>0.1008988232725076</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04678535682766159</v>
+        <v>0.03435741457082411</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>153</v>
+      </c>
+      <c r="J59" t="n">
+        <v>315</v>
+      </c>
+      <c r="K59" t="n">
+        <v>74.47347599001907</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2541,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3276393812.771385</v>
+        <v>3446409274.037089</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1624001372722236</v>
+        <v>0.1395829726227469</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02877135524035376</v>
+        <v>0.02636123189219895</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>54</v>
+      </c>
+      <c r="J60" t="n">
+        <v>316</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2582,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3051026245.848052</v>
+        <v>2981627990.936344</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1602966897361785</v>
+        <v>0.1745204047746749</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02772236387943115</v>
+        <v>0.02895709586983127</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2617,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1544571923.244891</v>
+        <v>2099556510.231711</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1278354549112991</v>
+        <v>0.1247667866393429</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0302482726875012</v>
+        <v>0.04303222890071749</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2646,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3440729520.286151</v>
+        <v>5247299667.453112</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0774953330725571</v>
+        <v>0.1012739304011122</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04596287747358037</v>
+        <v>0.03387095817384837</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>153</v>
+      </c>
+      <c r="J63" t="n">
+        <v>316</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2681,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4921467557.883049</v>
+        <v>5534078297.591176</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1799479125728035</v>
+        <v>0.1761581787246188</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0353773827242637</v>
+        <v>0.03293039713910383</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>156</v>
+      </c>
+      <c r="J64" t="n">
+        <v>316</v>
+      </c>
+      <c r="K64" t="n">
+        <v>76.60114206239783</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2718,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3664717373.516952</v>
+        <v>3898368538.77617</v>
       </c>
       <c r="F65" t="n">
-        <v>0.10628122175187</v>
+        <v>0.1520161114140044</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02871332635002154</v>
+        <v>0.02429198648249304</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>249</v>
+      </c>
+      <c r="J65" t="n">
+        <v>316</v>
+      </c>
+      <c r="K65" t="n">
+        <v>76.79146050295876</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2755,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4997791748.298868</v>
+        <v>4732424400.444288</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1154166856780596</v>
+        <v>0.1025153367044468</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03942082005218935</v>
+        <v>0.03965297545594421</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>156</v>
+      </c>
+      <c r="J66" t="n">
+        <v>315</v>
+      </c>
+      <c r="K66" t="n">
+        <v>72.84812678292585</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2261269737.569607</v>
+        <v>2856315091.403955</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07659879994189039</v>
+        <v>0.07771748055955585</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03765725441799566</v>
+        <v>0.04731425104443421</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2833,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4031122979.297532</v>
+        <v>4887964874.449461</v>
       </c>
       <c r="F68" t="n">
-        <v>0.11251513175623</v>
+        <v>0.140957429555134</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03717412536762386</v>
+        <v>0.04893963704323219</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>170</v>
+      </c>
+      <c r="J68" t="n">
+        <v>316</v>
+      </c>
+      <c r="K68" t="n">
+        <v>75.98410174254053</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2132991115.018424</v>
+        <v>2088689265.56891</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1685658422245437</v>
+        <v>0.1402138029548195</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04589279751785631</v>
+        <v>0.06013779506966432</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2579335490.779707</v>
+        <v>2306422895.819561</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09536528594175762</v>
+        <v>0.07989201079877992</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03762493489509822</v>
+        <v>0.04034487704027646</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>47</v>
+      </c>
+      <c r="J70" t="n">
+        <v>313</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4885492699.307687</v>
+        <v>3595769883.919055</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1400860814825634</v>
+        <v>0.1248568345028671</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03395744454882514</v>
+        <v>0.02289273790623369</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>234</v>
+      </c>
+      <c r="J71" t="n">
+        <v>315</v>
+      </c>
+      <c r="K71" t="n">
+        <v>74.88064034885679</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2240117001.722405</v>
+        <v>1713327001.624931</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06845315332367184</v>
+        <v>0.1044353345325804</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04194646057072843</v>
+        <v>0.05167341448390667</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2251052831.817538</v>
+        <v>2313588308.233754</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1017271207688818</v>
+        <v>0.09909182025390978</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03437094931631671</v>
+        <v>0.03602415711759599</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3047,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2915537774.084364</v>
+        <v>2866334602.633508</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1733034779781981</v>
+        <v>0.1572279555923291</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02729995580751674</v>
+        <v>0.03155438089111424</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>83</v>
+      </c>
+      <c r="J74" t="n">
+        <v>315</v>
+      </c>
+      <c r="K74" t="n">
+        <v>56.88589935885346</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1578245586.771296</v>
+        <v>2384531813.449186</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1629768212344999</v>
+        <v>0.1230601841410775</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03132603968674764</v>
+        <v>0.02889581240260806</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3119,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3372631965.058832</v>
+        <v>3832486787.355104</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09309369628414481</v>
+        <v>0.08552541589757613</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02461049488333129</v>
+        <v>0.02481554262550522</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>149</v>
+      </c>
+      <c r="J76" t="n">
+        <v>315</v>
+      </c>
+      <c r="K76" t="n">
+        <v>73.11847217698428</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1922526171.915409</v>
+        <v>1680479032.003779</v>
       </c>
       <c r="F77" t="n">
-        <v>0.154831745112968</v>
+        <v>0.1793307518770573</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02067781612100065</v>
+        <v>0.02885428865979027</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4098152871.082747</v>
+        <v>3578935151.408133</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09195065106858914</v>
+        <v>0.09276019411517328</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04215230758945918</v>
+        <v>0.0439306115177081</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>156</v>
+      </c>
+      <c r="J78" t="n">
+        <v>316</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1473658897.167615</v>
+        <v>1300846570.995984</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1696646773374603</v>
+        <v>0.1744850294840759</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03000122483473158</v>
+        <v>0.02796852314265063</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4777545627.002638</v>
+        <v>3882953504.41001</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09048512502005567</v>
+        <v>0.08393716348604978</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03297741632747647</v>
+        <v>0.03248898155867526</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>154</v>
+      </c>
+      <c r="J80" t="n">
+        <v>316</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3251571633.500984</v>
+        <v>3324612973.509916</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1036693947300792</v>
+        <v>0.1269677285877396</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03111811012201344</v>
+        <v>0.02744267231221128</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>146</v>
+      </c>
+      <c r="J81" t="n">
+        <v>315</v>
+      </c>
+      <c r="K81" t="n">
+        <v>57.39190630655649</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3644183851.491966</v>
+        <v>4430505963.554582</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2141247954908989</v>
+        <v>0.2112419635442698</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02015839836654243</v>
+        <v>0.01856605574114296</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>229</v>
+      </c>
+      <c r="J82" t="n">
+        <v>315</v>
+      </c>
+      <c r="K82" t="n">
+        <v>75.62179660489244</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2443440829.681136</v>
+        <v>2355209194.657954</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1137527918596686</v>
+        <v>0.1366823003330645</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03263397336587732</v>
+        <v>0.03260962409325924</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1895527598.619789</v>
+        <v>2340101873.524805</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09663232164320364</v>
+        <v>0.07445891713304671</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0450787327161405</v>
+        <v>0.04444397179525351</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2510729916.961953</v>
+        <v>3064201774.699377</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1419924818808888</v>
+        <v>0.1817752604800447</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04846038923799951</v>
+        <v>0.05601813919441453</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>42</v>
+      </c>
+      <c r="J85" t="n">
+        <v>315</v>
+      </c>
+      <c r="K85" t="n">
+        <v>70.89741475245198</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2335951635.248294</v>
+        <v>2592819399.637545</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1676138750916786</v>
+        <v>0.1200030624635737</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02646951302189698</v>
+        <v>0.01922994718084496</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1143128743.741592</v>
+        <v>1396829787.905193</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1664455747742558</v>
+        <v>0.1553432304423891</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03953329809557488</v>
+        <v>0.04256346131383486</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3268465335.913797</v>
+        <v>2378136671.388337</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1538999205428741</v>
+        <v>0.1364502112642798</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02631889351093649</v>
+        <v>0.03087954139901424</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>43</v>
+      </c>
+      <c r="J88" t="n">
+        <v>300</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2127837013.599756</v>
+        <v>3319461099.1133</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1321405700698585</v>
+        <v>0.1468271263041441</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02837915761327185</v>
+        <v>0.03118170066392781</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>24</v>
+      </c>
+      <c r="J89" t="n">
+        <v>314</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1564571931.838823</v>
+        <v>1655719225.501048</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1171352775479499</v>
+        <v>0.1213395791586746</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04544731592481638</v>
+        <v>0.04621451271002926</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1562120580.040899</v>
+        <v>1583363640.213956</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1597877308874164</v>
+        <v>0.1572909292807819</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04371138177719051</v>
+        <v>0.04075660981273245</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2433461696.223108</v>
+        <v>1851933386.930297</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08255293758268567</v>
+        <v>0.07100157833828905</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03280280194998314</v>
+        <v>0.0351128519660079</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4558420913.415878</v>
+        <v>4228581129.72388</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1380259916927552</v>
+        <v>0.1221354912461295</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0344974907792338</v>
+        <v>0.05288006572018708</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>141</v>
+      </c>
+      <c r="J93" t="n">
+        <v>316</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2515060183.945851</v>
+        <v>2222232108.335936</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1143601837488165</v>
+        <v>0.1441504246925226</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03547776451132742</v>
+        <v>0.02861672960247012</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2463870674.572242</v>
+        <v>2500880931.80892</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09683653203997246</v>
+        <v>0.1219765472653617</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05211550298182138</v>
+        <v>0.03798275139699381</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2252036426.467835</v>
+        <v>1743474044.60869</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1350232676123309</v>
+        <v>0.1030609810573049</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02886400269997733</v>
+        <v>0.04627881451708383</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5380167919.683772</v>
+        <v>3341388175.698306</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1338619957182679</v>
+        <v>0.106713119646701</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02787696861891235</v>
+        <v>0.02268444952165226</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>160</v>
+      </c>
+      <c r="J97" t="n">
+        <v>315</v>
+      </c>
+      <c r="K97" t="n">
+        <v>65.42860899613125</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3846257319.187489</v>
+        <v>3267368803.62512</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09862670689315643</v>
+        <v>0.1172935087704368</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02279192065099666</v>
+        <v>0.02777130919835704</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>78</v>
+      </c>
+      <c r="J98" t="n">
+        <v>315</v>
+      </c>
+      <c r="K98" t="n">
+        <v>62.630209415677</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3343671613.889754</v>
+        <v>2124619154.259009</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1345128728427027</v>
+        <v>0.1415829027550264</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02723863093966703</v>
+        <v>0.02950471177910165</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3083108044.183236</v>
+        <v>3918836749.453301</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1607908568125692</v>
+        <v>0.1391169350260636</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01882145408794291</v>
+        <v>0.0203144756517635</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>138</v>
+      </c>
+      <c r="J100" t="n">
+        <v>316</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3393687754.209483</v>
+        <v>2243878792.14858</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1412016722313425</v>
+        <v>0.1893291281592009</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03806693515539281</v>
+        <v>0.03540567011675774</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>310</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
